--- a/sentiment_review.xlsx
+++ b/sentiment_review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\sentiment_review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29049DE8-143E-427B-A5EB-DB65082FCA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AFB48F6-D508-4B97-81DA-5B42875C1F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9948" yWindow="60" windowWidth="13092" windowHeight="8964" xr2:uid="{3CE1DE89-743F-47BD-BC67-FD69B493FF7A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3CE1DE89-743F-47BD-BC67-FD69B493FF7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,117 +32,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>ReviewLiked</t>
   </si>
   <si>
-    <t>This application is very good</t>
-  </si>
-  <si>
-    <t>I cannot find my previous location its bad</t>
-  </si>
-  <si>
-    <t>Sometimes it takes too long to open the map</t>
-  </si>
-  <si>
-    <t>I easily find part time work here</t>
-  </si>
-  <si>
-    <t>Its not that secure</t>
-  </si>
-  <si>
-    <t>I can show my talent and make benefit from it</t>
-  </si>
-  <si>
-    <t>Map location finding its a best feature</t>
-  </si>
-  <si>
-    <t>The payment process needs to be upgraded</t>
-  </si>
-  <si>
-    <t>The work done process need a good new feature</t>
-  </si>
-  <si>
-    <t>Wow they added a new feature that I can post my work</t>
-  </si>
-  <si>
-    <t>The KYC option is not accepting my pan card</t>
-  </si>
-  <si>
-    <t>This app surprise me more and its recommendation is nice</t>
-  </si>
-  <si>
-    <t>They should add filter mode</t>
-  </si>
-  <si>
-    <t>I found many times my work profile is not highlighted</t>
-  </si>
-  <si>
-    <t>They added a new short video mode which is best</t>
-  </si>
-  <si>
-    <t>Short video mode is very helpful that I can post my work</t>
-  </si>
-  <si>
-    <t>In my mobile its browse faster and its delightful</t>
-  </si>
-  <si>
-    <t>the finding job mode on map location is too messy sometimes that I cannot locate and continue</t>
-  </si>
-  <si>
-    <t>The UI design is not that good for me. I expected more</t>
-  </si>
-  <si>
-    <t>I always find difficulties in adding the UPI mode</t>
-  </si>
-  <si>
-    <t>Oh my god now I can show my talent here</t>
-  </si>
-  <si>
-    <t>High network needed for load, its only for city area</t>
-  </si>
-  <si>
-    <t>How can I trust these people which I dont know who are they and its kind of insecure.</t>
-  </si>
-  <si>
-    <t>When I get back from job, I can do another part time job to get extra money itâ€™s really useful</t>
-  </si>
-  <si>
-    <t>its very useful</t>
-  </si>
-  <si>
-    <t>The direction mode is very clean as same as the google map</t>
-  </si>
-  <si>
-    <t>Now I can make my own pocket money</t>
-  </si>
-  <si>
-    <t>Now I can share my talent whoever I want and make benefit from it</t>
-  </si>
-  <si>
-    <t>The token mode is fire because now I can verify my account and get trusted by others</t>
-  </si>
-  <si>
-    <t>The collection of token is very difficult that you have to reviewed by many person opinion</t>
-  </si>
-  <si>
-    <t>They should add a direct verify account so that I can easily trusted</t>
-  </si>
-  <si>
-    <t>I don’t understand why they are not added the danger areas which is not secured for girls</t>
-  </si>
-  <si>
-    <t>They added the many works precisely that we can found easily by that</t>
-  </si>
-  <si>
-    <t>This is the best app I ever witnessed the features and the work profile just killing!!</t>
-  </si>
-  <si>
-    <t>Please do not add that much ad on the app. We feel disturbed by that</t>
-  </si>
-  <si>
-    <t>The premium membership is cheaper and best</t>
+    <t>This application is very good.1</t>
+  </si>
+  <si>
+    <t>I cannot find my previous location its bad.0</t>
+  </si>
+  <si>
+    <t>Sometimes it takes too long to open the map.0</t>
+  </si>
+  <si>
+    <t>I easily find part time work here.1</t>
+  </si>
+  <si>
+    <t>Its not that secure.0</t>
+  </si>
+  <si>
+    <t>I can show my talent and make benefit from it.1</t>
+  </si>
+  <si>
+    <t>Map location finding its a best feature.1</t>
+  </si>
+  <si>
+    <t>The payment process needs to be upgraded.0</t>
+  </si>
+  <si>
+    <t>The work done process need a good new feature.0</t>
+  </si>
+  <si>
+    <t>Wow they added a new feature that I can post my work.1</t>
+  </si>
+  <si>
+    <t>The KYC option is not accepting my pan card.0</t>
+  </si>
+  <si>
+    <t>This app surprise me more and its recommendation is nice.1</t>
+  </si>
+  <si>
+    <t>They should add filter mode.0</t>
+  </si>
+  <si>
+    <t>I found many times my work profile is not highlighted.0</t>
+  </si>
+  <si>
+    <t>They added a new short video mode which is best.1</t>
+  </si>
+  <si>
+    <t>Short video mode is very helpful that I can post my work.1</t>
+  </si>
+  <si>
+    <t>In my mobile its browse faster and its delightful.1</t>
+  </si>
+  <si>
+    <t>the finding job mode on map location is too messy sometimes that I cannot locate and continue.0</t>
+  </si>
+  <si>
+    <t>The UI design is not that good for me. I expected more.0</t>
+  </si>
+  <si>
+    <t>I always find difficulties in adding the UPI mode.0</t>
+  </si>
+  <si>
+    <t>Oh my god now I can show my talent here.1</t>
+  </si>
+  <si>
+    <t>High network needed for load, its only for city area.0</t>
+  </si>
+  <si>
+    <t>How can I trust these people which I dont know who are they and its kind of insecure..0</t>
+  </si>
+  <si>
+    <t>When I get back from job, I can do another part time job to get extra money its really useful.1</t>
+  </si>
+  <si>
+    <t>The direction mode is very clean as same as the google map.1</t>
+  </si>
+  <si>
+    <t>Now I can make my own pocket money.1</t>
+  </si>
+  <si>
+    <t>Now I can share my talent whoever I want and make benefit from it.1</t>
+  </si>
+  <si>
+    <t>The token mode is fire because now I can verify my account and get trusted by others.1</t>
+  </si>
+  <si>
+    <t>The collection of token is very difficult that you have to reviewed by many person opinion.0</t>
+  </si>
+  <si>
+    <t>They should add a direct verify account so that I can easily trusted.0</t>
+  </si>
+  <si>
+    <t>I don’t understand why they are not added the danger areas which is not secured for girls.0</t>
+  </si>
+  <si>
+    <t>They added the many works precisely that we can found easily by that.1</t>
+  </si>
+  <si>
+    <t>This is the best app I ever witnessed the features and the work profile just killing!!.1</t>
+  </si>
+  <si>
+    <t>Please do not add that much ad on the app. We feel disturbed by that.0</t>
+  </si>
+  <si>
+    <t>The premium membership is cheaper and best.1</t>
   </si>
 </sst>
 </file>
@@ -494,307 +491,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825BCF80-2252-4967-A05B-F942AA6E897A}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="80.88671875" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="H25" t="s">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I24:J25">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A36B2879-285A-494D-96C3-60E46B84D54F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A36B2879-285A-494D-96C3-60E46B84D54F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I24:J25</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/sentiment_review.xlsx
+++ b/sentiment_review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\sentiment_review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AFB48F6-D508-4B97-81DA-5B42875C1F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42670D55-5A0A-40F4-B355-21D3E9479B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3CE1DE89-743F-47BD-BC67-FD69B493FF7A}"/>
   </bookViews>
@@ -32,114 +32,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>ReviewLiked</t>
-  </si>
-  <si>
-    <t>This application is very good.1</t>
-  </si>
-  <si>
-    <t>I cannot find my previous location its bad.0</t>
-  </si>
-  <si>
-    <t>Sometimes it takes too long to open the map.0</t>
-  </si>
-  <si>
-    <t>I easily find part time work here.1</t>
-  </si>
-  <si>
-    <t>Its not that secure.0</t>
-  </si>
-  <si>
-    <t>I can show my talent and make benefit from it.1</t>
-  </si>
-  <si>
-    <t>Map location finding its a best feature.1</t>
-  </si>
-  <si>
-    <t>The payment process needs to be upgraded.0</t>
-  </si>
-  <si>
-    <t>The work done process need a good new feature.0</t>
-  </si>
-  <si>
-    <t>Wow they added a new feature that I can post my work.1</t>
-  </si>
-  <si>
-    <t>The KYC option is not accepting my pan card.0</t>
-  </si>
-  <si>
-    <t>This app surprise me more and its recommendation is nice.1</t>
-  </si>
-  <si>
-    <t>They should add filter mode.0</t>
-  </si>
-  <si>
-    <t>I found many times my work profile is not highlighted.0</t>
-  </si>
-  <si>
-    <t>They added a new short video mode which is best.1</t>
-  </si>
-  <si>
-    <t>Short video mode is very helpful that I can post my work.1</t>
-  </si>
-  <si>
-    <t>In my mobile its browse faster and its delightful.1</t>
-  </si>
-  <si>
-    <t>the finding job mode on map location is too messy sometimes that I cannot locate and continue.0</t>
-  </si>
-  <si>
-    <t>The UI design is not that good for me. I expected more.0</t>
-  </si>
-  <si>
-    <t>I always find difficulties in adding the UPI mode.0</t>
-  </si>
-  <si>
-    <t>Oh my god now I can show my talent here.1</t>
-  </si>
-  <si>
-    <t>High network needed for load, its only for city area.0</t>
-  </si>
-  <si>
-    <t>How can I trust these people which I dont know who are they and its kind of insecure..0</t>
-  </si>
-  <si>
-    <t>When I get back from job, I can do another part time job to get extra money its really useful.1</t>
-  </si>
-  <si>
-    <t>The direction mode is very clean as same as the google map.1</t>
-  </si>
-  <si>
-    <t>Now I can make my own pocket money.1</t>
-  </si>
-  <si>
-    <t>Now I can share my talent whoever I want and make benefit from it.1</t>
-  </si>
-  <si>
-    <t>The token mode is fire because now I can verify my account and get trusted by others.1</t>
-  </si>
-  <si>
-    <t>The collection of token is very difficult that you have to reviewed by many person opinion.0</t>
-  </si>
-  <si>
-    <t>They should add a direct verify account so that I can easily trusted.0</t>
-  </si>
-  <si>
-    <t>I don’t understand why they are not added the danger areas which is not secured for girls.0</t>
-  </si>
-  <si>
-    <t>They added the many works precisely that we can found easily by that.1</t>
-  </si>
-  <si>
-    <t>This is the best app I ever witnessed the features and the work profile just killing!!.1</t>
-  </si>
-  <si>
-    <t>Please do not add that much ad on the app. We feel disturbed by that.0</t>
-  </si>
-  <si>
-    <t>The premium membership is cheaper and best.1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+  <si>
+    <t>This application is very good</t>
+  </si>
+  <si>
+    <t>I cannot find my previous location its bad</t>
+  </si>
+  <si>
+    <t>Sometimes it takes too long to open the map</t>
+  </si>
+  <si>
+    <t>I easily find part time work here</t>
+  </si>
+  <si>
+    <t>Its not that secure</t>
+  </si>
+  <si>
+    <t>I can show my talent and make benefit from it</t>
+  </si>
+  <si>
+    <t>Map location finding its a best feature</t>
+  </si>
+  <si>
+    <t>The payment process needs to be upgraded</t>
+  </si>
+  <si>
+    <t>The work done process need a good new feature</t>
+  </si>
+  <si>
+    <t>Wow they added a new feature that I can post my work</t>
+  </si>
+  <si>
+    <t>The KYC option is not accepting my pan card</t>
+  </si>
+  <si>
+    <t>This app surprise me more and its recommendation is nice</t>
+  </si>
+  <si>
+    <t>They should add filter mode</t>
+  </si>
+  <si>
+    <t>I found many times my work profile is not highlighted</t>
+  </si>
+  <si>
+    <t>They added a new short video mode which is best</t>
+  </si>
+  <si>
+    <t>Short video mode is very helpful that I can post my work</t>
+  </si>
+  <si>
+    <t>In my mobile its browse faster and its delightful</t>
+  </si>
+  <si>
+    <t>the finding job mode on map location is too messy sometimes that I cannot locate and continue</t>
+  </si>
+  <si>
+    <t>The UI design is not that good for me. I expected more</t>
+  </si>
+  <si>
+    <t>I always find difficulties in adding the UPI mode</t>
+  </si>
+  <si>
+    <t>Oh my god now I can show my talent here</t>
+  </si>
+  <si>
+    <t>High network needed for load, its only for city area</t>
+  </si>
+  <si>
+    <t>How can I trust these people which I dont know who are they and its kind of insecure.</t>
+  </si>
+  <si>
+    <t>The direction mode is very clean as same as the google map</t>
+  </si>
+  <si>
+    <t>Now I can make my own pocket money</t>
+  </si>
+  <si>
+    <t>Now I can share my talent whoever I want and make benefit from it</t>
+  </si>
+  <si>
+    <t>The token mode is fire because now I can verify my account and get trusted by others</t>
+  </si>
+  <si>
+    <t>The collection of token is very difficult that you have to reviewed by many person opinion</t>
+  </si>
+  <si>
+    <t>They should add a direct verify account so that I can easily trusted</t>
+  </si>
+  <si>
+    <t>I don’t understand why they are not added the danger areas which is not secured for girls</t>
+  </si>
+  <si>
+    <t>They added the many works precisely that we can found easily by that</t>
+  </si>
+  <si>
+    <t>Please do not add that much ad on the app. We feel disturbed by that</t>
+  </si>
+  <si>
+    <t>The premium membership is cheaper and best</t>
+  </si>
+  <si>
+    <t>When I get back from job, I can do another part time job to get extra money its really useful</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Liked</t>
+  </si>
+  <si>
+    <t>This is the best app I ever witnessed the features and the work profile just killing!</t>
   </si>
 </sst>
 </file>
@@ -491,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825BCF80-2252-4967-A05B-F942AA6E897A}">
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,184 +506,292 @@
     <col min="2" max="2" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="B36">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/sentiment_review.xlsx
+++ b/sentiment_review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\sentiment_review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42670D55-5A0A-40F4-B355-21D3E9479B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC0F0128-E015-4ED9-83C4-AAB6B71602E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3CE1DE89-743F-47BD-BC67-FD69B493FF7A}"/>
   </bookViews>
@@ -40,109 +40,109 @@
     <t>I cannot find my previous location its bad</t>
   </si>
   <si>
-    <t>Sometimes it takes too long to open the map</t>
-  </si>
-  <si>
-    <t>I easily find part time work here</t>
-  </si>
-  <si>
-    <t>Its not that secure</t>
-  </si>
-  <si>
-    <t>I can show my talent and make benefit from it</t>
-  </si>
-  <si>
-    <t>Map location finding its a best feature</t>
-  </si>
-  <si>
-    <t>The payment process needs to be upgraded</t>
-  </si>
-  <si>
-    <t>The work done process need a good new feature</t>
-  </si>
-  <si>
-    <t>Wow they added a new feature that I can post my work</t>
-  </si>
-  <si>
-    <t>The KYC option is not accepting my pan card</t>
-  </si>
-  <si>
     <t>This app surprise me more and its recommendation is nice</t>
   </si>
   <si>
-    <t>They should add filter mode</t>
-  </si>
-  <si>
-    <t>I found many times my work profile is not highlighted</t>
-  </si>
-  <si>
-    <t>They added a new short video mode which is best</t>
-  </si>
-  <si>
-    <t>Short video mode is very helpful that I can post my work</t>
-  </si>
-  <si>
-    <t>In my mobile its browse faster and its delightful</t>
-  </si>
-  <si>
     <t>the finding job mode on map location is too messy sometimes that I cannot locate and continue</t>
   </si>
   <si>
-    <t>The UI design is not that good for me. I expected more</t>
-  </si>
-  <si>
-    <t>I always find difficulties in adding the UPI mode</t>
-  </si>
-  <si>
-    <t>Oh my god now I can show my talent here</t>
-  </si>
-  <si>
-    <t>High network needed for load, its only for city area</t>
-  </si>
-  <si>
-    <t>How can I trust these people which I dont know who are they and its kind of insecure.</t>
-  </si>
-  <si>
-    <t>The direction mode is very clean as same as the google map</t>
-  </si>
-  <si>
-    <t>Now I can make my own pocket money</t>
-  </si>
-  <si>
-    <t>Now I can share my talent whoever I want and make benefit from it</t>
-  </si>
-  <si>
-    <t>The token mode is fire because now I can verify my account and get trusted by others</t>
-  </si>
-  <si>
-    <t>The collection of token is very difficult that you have to reviewed by many person opinion</t>
-  </si>
-  <si>
-    <t>They should add a direct verify account so that I can easily trusted</t>
-  </si>
-  <si>
-    <t>I don’t understand why they are not added the danger areas which is not secured for girls</t>
-  </si>
-  <si>
-    <t>They added the many works precisely that we can found easily by that</t>
-  </si>
-  <si>
-    <t>Please do not add that much ad on the app. We feel disturbed by that</t>
-  </si>
-  <si>
-    <t>The premium membership is cheaper and best</t>
-  </si>
-  <si>
-    <t>When I get back from job, I can do another part time job to get extra money its really useful</t>
-  </si>
-  <si>
     <t>Review</t>
   </si>
   <si>
     <t>Liked</t>
   </si>
   <si>
-    <t>This is the best app I ever witnessed the features and the work profile just killing!</t>
+    <t>Sometimes it takes too long to open the map I feel sad</t>
+  </si>
+  <si>
+    <t>I easily find part time work here.its good</t>
+  </si>
+  <si>
+    <t>Its not that secure .i don’t trust it</t>
+  </si>
+  <si>
+    <t>I can show my talent and make benefit from it .i like this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map location finding its a best feature </t>
+  </si>
+  <si>
+    <t>The payment process needs to be upgraded not satisfied</t>
+  </si>
+  <si>
+    <t>The work done process need a good new feature.please change it</t>
+  </si>
+  <si>
+    <t>Wow they added a new feature that I can post my work .its good</t>
+  </si>
+  <si>
+    <t>The KYC option is not accepting my pan card.im frustrated</t>
+  </si>
+  <si>
+    <t>They should add filter mode.not liked this one</t>
+  </si>
+  <si>
+    <t>I found many times my work profile is not highlighted .its bad</t>
+  </si>
+  <si>
+    <t>They added a new short video mode which is best and good</t>
+  </si>
+  <si>
+    <t>Short video mode is very helpful that I can post my work its great</t>
+  </si>
+  <si>
+    <t>In my mobile its browse faster and its delightful and  loved it</t>
+  </si>
+  <si>
+    <t>The UI design is not that good for me. I expected more not liking it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I always find difficulties in adding the UPI mode.not liked this </t>
+  </si>
+  <si>
+    <t>Oh my god now I can show my talent here its good</t>
+  </si>
+  <si>
+    <t>High network needed for load, its only for city area not likeable</t>
+  </si>
+  <si>
+    <t>How can I trust these people which I dont know who are they and its kind of insecure .its bad</t>
+  </si>
+  <si>
+    <t>When I get back from job, I can do another part time job to get extra money its really useful and good</t>
+  </si>
+  <si>
+    <t>The direction mode is very clean as same as the google map its fine and better</t>
+  </si>
+  <si>
+    <t>Now I can make my own pocket money im happy</t>
+  </si>
+  <si>
+    <t>Now I can share my talent whoever I want and make benefit from it its good</t>
+  </si>
+  <si>
+    <t>The token mode is fire because now I can verify my account and get trusted by others its good</t>
+  </si>
+  <si>
+    <t>The collection of token is very difficult that you have to reviewed by many person opinion its bad</t>
+  </si>
+  <si>
+    <t>They should add a direct verify account so that I can easily trusted please add that</t>
+  </si>
+  <si>
+    <t>I don’t understand why they are not added the danger areas which is not secured for girls .its not fine</t>
+  </si>
+  <si>
+    <t>They added the many works precisely that we can found easily by that its good</t>
+  </si>
+  <si>
+    <t>This is the best app I ever witnessed the features and the work profile just killing! Very best app</t>
+  </si>
+  <si>
+    <t>Please do not add that much ad on the app. We feel disturbed by that its sad</t>
+  </si>
+  <si>
+    <t>The premium membership is cheaper and best its good</t>
   </si>
 </sst>
 </file>
@@ -496,22 +496,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825BCF80-2252-4967-A05B-F942AA6E897A}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="80.88671875" customWidth="1"/>
+    <col min="1" max="1" width="85" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -532,7 +532,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>1</v>

--- a/sentiment_review.xlsx
+++ b/sentiment_review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\sentiment_review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC0F0128-E015-4ED9-83C4-AAB6B71602E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DD55F96-A80C-4EBF-BCCD-48F89BC12558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3CE1DE89-743F-47BD-BC67-FD69B493FF7A}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>This application is very good</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Review</t>
   </si>
   <si>
-    <t>Liked</t>
-  </si>
-  <si>
     <t>Sometimes it takes too long to open the map I feel sad</t>
   </si>
   <si>
@@ -143,6 +140,15 @@
   </si>
   <si>
     <t>The premium membership is cheaper and best its good</t>
+  </si>
+  <si>
+    <t>judgement</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
 </sst>
 </file>
@@ -178,8 +184,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825BCF80-2252-4967-A05B-F942AA6E897A}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,287 +520,287 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B13">
-        <v>1</v>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="B19">
-        <v>0</v>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/sentiment_review.xlsx
+++ b/sentiment_review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\sentiment_review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DD55F96-A80C-4EBF-BCCD-48F89BC12558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7EB7B30-BE18-455F-B096-17910F960B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3CE1DE89-743F-47BD-BC67-FD69B493FF7A}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>This application is very good</t>
   </si>
@@ -142,13 +142,7 @@
     <t>The premium membership is cheaper and best its good</t>
   </si>
   <si>
-    <t>judgement</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>bad</t>
+    <t>label</t>
   </si>
 </sst>
 </file>
@@ -184,11 +178,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,13 +497,12 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="85" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -527,284 +517,284 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>37</v>
+      <c r="B2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
+      <c r="B3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>38</v>
+      <c r="B4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>37</v>
+      <c r="B5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
+      <c r="B6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>37</v>
+      <c r="B7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>37</v>
+      <c r="B8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
+      <c r="B9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
+      <c r="B10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
+      <c r="B11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
+      <c r="B12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
+      <c r="B13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
+      <c r="B14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>38</v>
+      <c r="B15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
+      <c r="B16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
+      <c r="B17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
+      <c r="B18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
+      <c r="B19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
+      <c r="B20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
+      <c r="B21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>37</v>
+      <c r="B22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>38</v>
+      <c r="B23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>38</v>
+      <c r="B24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>37</v>
+      <c r="B25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>37</v>
+      <c r="B26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>37</v>
+      <c r="B27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>37</v>
+      <c r="B28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>37</v>
+      <c r="B29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>38</v>
+      <c r="B30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>38</v>
+      <c r="B31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>38</v>
+      <c r="B32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>37</v>
+      <c r="B33">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>37</v>
+      <c r="B34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>38</v>
+      <c r="B35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>37</v>
+      <c r="B36">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I24:J25">
+  <conditionalFormatting sqref="H24:I25">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -832,7 +822,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I24:J25</xm:sqref>
+          <xm:sqref>H24:I25</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
